--- a/sections.xlsx
+++ b/sections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorot\Desktop\MasterStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DFD794-7D8B-4CD7-B370-CDF7245B657D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978FF2C3-5EEA-4601-812C-E194FEC71348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -438,16 +438,16 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>18</v>
       </c>
@@ -473,7 +473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -495,16 +495,16 @@
         <v>50</v>
       </c>
       <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
         <v>21</v>
       </c>
-      <c r="H2" s="1">
-        <v>2</v>
-      </c>
       <c r="I2" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -523,16 +523,16 @@
         <v>6004.8</v>
       </c>
       <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
         <v>21</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -551,16 +551,16 @@
         <v>4924.8</v>
       </c>
       <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
         <v>22</v>
       </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
       <c r="I4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -579,16 +579,16 @@
         <v>6424.8</v>
       </c>
       <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
         <v>21</v>
       </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
       <c r="I5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -607,16 +607,16 @@
         <v>3801.6</v>
       </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>19</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
       <c r="I6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -635,16 +635,16 @@
         <v>4303.2</v>
       </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>20</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -663,16 +663,16 @@
         <v>4833.6000000000004</v>
       </c>
       <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
         <v>19</v>
       </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
       <c r="I8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -691,16 +691,16 @@
         <v>6969.5999999999995</v>
       </c>
       <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
         <v>21</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
       </c>
       <c r="I9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -719,16 +719,16 @@
         <v>3489.6</v>
       </c>
       <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
         <v>18</v>
       </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
       <c r="I10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -747,16 +747,16 @@
         <v>5311.2</v>
       </c>
       <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
         <v>20</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -775,16 +775,16 @@
         <v>5798.4</v>
       </c>
       <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
         <v>17</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -803,16 +803,16 @@
         <v>4934.3999999999996</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>19</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -831,16 +831,16 @@
         <v>3220.8</v>
       </c>
       <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>19</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -859,16 +859,16 @@
         <v>3364.7999999999997</v>
       </c>
       <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>19</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
       <c r="I15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -887,16 +887,16 @@
         <v>7831.2000000000007</v>
       </c>
       <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
         <v>21</v>
       </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
       <c r="I16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -915,16 +915,16 @@
         <v>4384.8</v>
       </c>
       <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
         <v>20</v>
       </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
       <c r="I17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -943,10 +943,10 @@
         <v>4111.2</v>
       </c>
       <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
         <v>19</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -955,5 +955,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sections.xlsx
+++ b/sections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorot\Desktop\MasterStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978FF2C3-5EEA-4601-812C-E194FEC71348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E45C0E2-1DAB-49A5-8D0E-E5D23A6B9E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>p1</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>p16</t>
-  </si>
-  <si>
-    <t>p17</t>
   </si>
   <si>
     <t>fps</t>
@@ -435,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -449,28 +446,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -484,11 +481,11 @@
         <v>1904</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D18" si="0">B2/$F$2*120</f>
+        <f t="shared" ref="D2:D17" si="0">B2/$F$2*120</f>
         <v>2424</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E18" si="1">C2/$F$2*120</f>
+        <f t="shared" ref="E2:E17" si="1">C2/$F$2*120</f>
         <v>4569.5999999999995</v>
       </c>
       <c r="F2">
@@ -537,24 +534,24 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>874</v>
+        <v>1262</v>
       </c>
       <c r="C4" s="1">
-        <v>2052</v>
+        <v>2677</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>2097.6</v>
+        <v>3028.7999999999997</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>4924.8</v>
+        <v>6424.8</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -565,24 +562,24 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1262</v>
+        <v>738</v>
       </c>
       <c r="C5" s="1">
-        <v>2677</v>
+        <v>1584</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>3028.7999999999997</v>
+        <v>1771.2</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>6424.8</v>
+        <v>3801.6</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -593,27 +590,27 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>738</v>
+        <v>882</v>
       </c>
       <c r="C6" s="1">
-        <v>1584</v>
+        <v>1793</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>1771.2</v>
+        <v>2116.8000000000002</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>3801.6</v>
+        <v>4303.2</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -621,27 +618,27 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>882</v>
+        <v>943</v>
       </c>
       <c r="C7" s="1">
-        <v>1793</v>
+        <v>2014</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>2116.8000000000002</v>
+        <v>2263.1999999999998</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>4303.2</v>
+        <v>4833.6000000000004</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -649,27 +646,27 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>943</v>
+        <v>1242</v>
       </c>
       <c r="C8" s="1">
-        <v>2014</v>
+        <v>2904</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>2263.1999999999998</v>
+        <v>2980.8</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>4833.6000000000004</v>
+        <v>6969.5999999999995</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -677,27 +674,27 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>1242</v>
+        <v>761</v>
       </c>
       <c r="C9" s="1">
-        <v>2904</v>
+        <v>1454</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>2980.8</v>
+        <v>1826.4</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>6969.5999999999995</v>
+        <v>3489.6</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -705,27 +702,27 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>761</v>
+        <v>1042</v>
       </c>
       <c r="C10" s="1">
-        <v>1454</v>
+        <v>2213</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>1826.4</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>3489.6</v>
+        <v>5311.2</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -733,24 +730,24 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>1042</v>
+        <v>1081</v>
       </c>
       <c r="C11" s="1">
-        <v>2213</v>
+        <v>2416</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>2500.8000000000002</v>
+        <v>2594.4</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>5311.2</v>
+        <v>5798.4</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -761,27 +758,27 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C12" s="1">
-        <v>2416</v>
+        <v>2056</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>2594.4</v>
+        <v>2584.7999999999997</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>5798.4</v>
+        <v>4934.3999999999996</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -789,27 +786,27 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>1077</v>
+        <v>682</v>
       </c>
       <c r="C13" s="1">
-        <v>2056</v>
+        <v>1342</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>2584.7999999999997</v>
+        <v>1636.8000000000002</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>4934.3999999999996</v>
+        <v>3220.8</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>19</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -817,18 +814,18 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C14" s="1">
-        <v>1342</v>
+        <v>1402</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>1636.8000000000002</v>
+        <v>1646.4</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>3220.8</v>
+        <v>3364.7999999999997</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -837,7 +834,7 @@
         <v>19</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -845,24 +842,24 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>686</v>
+        <v>1566</v>
       </c>
       <c r="C15" s="1">
-        <v>1402</v>
+        <v>3263</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>1646.4</v>
+        <v>3758.4</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>3364.7999999999997</v>
+        <v>7831.2000000000007</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -873,24 +870,24 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>1566</v>
+        <v>918</v>
       </c>
       <c r="C16" s="1">
-        <v>3263</v>
+        <v>1827</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>3758.4</v>
+        <v>2203.1999999999998</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>7831.2000000000007</v>
+        <v>4384.8</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -901,54 +898,26 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>918</v>
+        <v>889</v>
       </c>
       <c r="C17" s="1">
-        <v>1827</v>
+        <v>1713</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>2203.1999999999998</v>
+        <v>2133.6000000000004</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>4384.8</v>
+        <v>4111.2</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>889</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1713</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>2133.6000000000004</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>4111.2</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>19</v>
-      </c>
-      <c r="I18">
         <v>1</v>
       </c>
     </row>
